--- a/doc/config解析.xlsx
+++ b/doc/config解析.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9C2694-3D8A-4E58-B5BD-E39171553658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEA8CB5-D51E-4EE6-916A-6592A1C373A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="雛形" sheetId="1" r:id="rId1"/>
+    <sheet name="settings.py" sheetId="3" r:id="rId1"/>
+    <sheet name="urls.py" sheetId="4" r:id="rId2"/>
+    <sheet name="asgi.py" sheetId="2" r:id="rId3"/>
+    <sheet name="wsgi.py" sheetId="5" r:id="rId4"/>
+    <sheet name="雛形" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +28,2796 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+  <si>
+    <t>"""</t>
+  </si>
+  <si>
+    <t>ASGI config for config project.</t>
+  </si>
+  <si>
+    <t>It exposes the ASGI callable as a module-level variable named ``application``.</t>
+  </si>
+  <si>
+    <t>For more information on this file, see</t>
+  </si>
+  <si>
+    <t>https://docs.djangoproject.com/en/5.1/howto/deployment/asgi/</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>os</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>django</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>core</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>asgi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get_asgi_application</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>os</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>environ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>setdefault</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'DJANGO_SETTINGS_MODULE'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'config.settings'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>application</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get_asgi_application</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>Django settings for config project.</t>
+  </si>
+  <si>
+    <t>Generated by 'django-admin startproject' using Django 5.1.2.</t>
+  </si>
+  <si>
+    <t>https://docs.djangoproject.com/en/5.1/topics/settings/</t>
+  </si>
+  <si>
+    <t>For the full list of settings and their values, see</t>
+  </si>
+  <si>
+    <t>https://docs.djangoproject.com/en/5.1/ref/settings/</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pathlib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Path</t>
+    </r>
+  </si>
+  <si>
+    <t># Build paths inside the project like this: BASE_DIR / 'subdir'.</t>
+  </si>
+  <si>
+    <r>
+      <t>BASE_DIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>__file__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>resolve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent</t>
+    </r>
+  </si>
+  <si>
+    <t># Quick-start development settings - unsuitable for production</t>
+  </si>
+  <si>
+    <t># See https://docs.djangoproject.com/en/5.1/howto/deployment/checklist/</t>
+  </si>
+  <si>
+    <t># SECURITY WARNING: keep the secret key used in production secret!</t>
+  </si>
+  <si>
+    <r>
+      <t>SECRET_KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django-insecure-b(xr22+k&amp;npcnf=l1rm)n+tt)f3d2ooio)g!wpm!$53fbwc0(i"</t>
+    </r>
+  </si>
+  <si>
+    <t># SECURITY WARNING: don't run with debug turned on in production!</t>
+  </si>
+  <si>
+    <r>
+      <t>DEBUG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALLOWED_HOSTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = []</t>
+    </r>
+  </si>
+  <si>
+    <t># Application definition</t>
+  </si>
+  <si>
+    <r>
+      <t>INSTALLED_APPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.admin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.auth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.contenttypes"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.sessions"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.messages"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.staticfiles"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"accounts.apps.AccountsConfig"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"book.apps.BookConfig"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <r>
+      <t>MIDDLEWARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.middleware.security.SecurityMiddleware"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.sessions.middleware.SessionMiddleware"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.middleware.common.CommonMiddleware"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.middleware.csrf.CsrfViewMiddleware"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.auth.middleware.AuthenticationMiddleware"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.messages.middleware.MessageMiddleware"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.middleware.clickjacking.XFrameOptionsMiddleware"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ROOT_URLCONF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"config.urls"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TEMPLATES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = [</t>
+    </r>
+  </si>
+  <si>
+    <t>    {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"BACKEND"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.template.backends.django.DjangoTemplates"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DIRS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BASE_DIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"templates"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"APP_DIRS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"OPTIONS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"context_processors"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.template.context_processors.debug"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.template.context_processors.request"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.auth.context_processors.auth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.messages.context_processors.messages"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>            ],</t>
+  </si>
+  <si>
+    <t>        },</t>
+  </si>
+  <si>
+    <t>    },</t>
+  </si>
+  <si>
+    <r>
+      <t>WSGI_APPLICATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"config.wsgi.application"</t>
+    </r>
+  </si>
+  <si>
+    <t># Database</t>
+  </si>
+  <si>
+    <t># https://docs.djangoproject.com/en/5.1/ref/settings/#databases</t>
+  </si>
+  <si>
+    <r>
+      <t>DATABASES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"default"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ENGINE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.db.backends.sqlite3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NAME"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BASE_DIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"db.sqlite3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t># Password validation</t>
+  </si>
+  <si>
+    <t># https://docs.djangoproject.com/en/5.1/ref/settings/#auth-password-validators</t>
+  </si>
+  <si>
+    <r>
+      <t>AUTH_PASSWORD_VALIDATORS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NAME"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.auth.password_validation.UserAttributeSimilarityValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NAME"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.auth.password_validation.MinimumLengthValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NAME"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.auth.password_validation.CommonPasswordValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NAME"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.contrib.auth.password_validation.NumericPasswordValidator"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t># Internationalization</t>
+  </si>
+  <si>
+    <t># https://docs.djangoproject.com/en/5.1/topics/i18n/</t>
+  </si>
+  <si>
+    <r>
+      <t>LANGUAGE_CODE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"en-us"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TIME_ZONE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"UTC"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>USE_I18N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>USE_TZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+  </si>
+  <si>
+    <t># Static files (CSS, JavaScript, Images)</t>
+  </si>
+  <si>
+    <t># https://docs.djangoproject.com/en/5.1/howto/static-files/</t>
+  </si>
+  <si>
+    <r>
+      <t>STATIC_URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/static/"</t>
+    </r>
+  </si>
+  <si>
+    <t># Default primary key field type</t>
+  </si>
+  <si>
+    <t># https://docs.djangoproject.com/en/5.1/ref/settings/#default-auto-field</t>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_AUTO_FIELD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"django.db.models.BigAutoField"</t>
+    </r>
+  </si>
+  <si>
+    <t># Login/Logpit redirect url</t>
+  </si>
+  <si>
+    <r>
+      <t>LOGIN_REDIRECT_URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"list-book"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LOGOUT_REDIRECT_URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"list-book"</t>
+    </r>
+  </si>
+  <si>
+    <t># Media URL</t>
+  </si>
+  <si>
+    <r>
+      <t>MEDIA_URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/media/"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MEDIA_ROOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BASE_DIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"media"</t>
+    </r>
+  </si>
+  <si>
+    <t>URL configuration for config project.</t>
+  </si>
+  <si>
+    <t>The `urlpatterns` list routes URLs to views. For more information please see:</t>
+  </si>
+  <si>
+    <t>    https://docs.djangoproject.com/en/5.1/topics/http/urls/</t>
+  </si>
+  <si>
+    <t>Examples:</t>
+  </si>
+  <si>
+    <t>Function views</t>
+  </si>
+  <si>
+    <t>    1. Add an import:  from my_app import views</t>
+  </si>
+  <si>
+    <t>    2. Add a URL to urlpatterns:  path('', views.home, name='home')</t>
+  </si>
+  <si>
+    <t>Class-based views</t>
+  </si>
+  <si>
+    <t>    1. Add an import:  from other_app.views import Home</t>
+  </si>
+  <si>
+    <t>    2. Add a URL to urlpatterns:  path('', Home.as_view(), name='home')</t>
+  </si>
+  <si>
+    <t>Including another URLconf</t>
+  </si>
+  <si>
+    <t>    1. Import the include() function: from django.urls import include, path</t>
+  </si>
+  <si>
+    <t>    2. Add a URL to urlpatterns:  path('blog/', include('blog.urls'))</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>django</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>settings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>django</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>static</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>django</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>contrib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>admin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>django</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>include</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>urlpatterns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"admin/"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"accounts/"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"accounts.urls"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># ログイン機能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"book.urls"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <t># 要求されたURL, 画像を読み込むURL</t>
+  </si>
+  <si>
+    <r>
+      <t>urlpatterns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>settings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.MEDIA_URL, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>document_root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>settings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.MEDIA_ROOT)</t>
+    </r>
+  </si>
+  <si>
+    <t>WSGI config for config project.</t>
+  </si>
+  <si>
+    <t>It exposes the WSGI callable as a module-level variable named ``application``.</t>
+  </si>
+  <si>
+    <t>https://docs.djangoproject.com/en/5.1/howto/deployment/wsgi/</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>django</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>core</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>wsgi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get_wsgi_application</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>application</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get_wsgi_application</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,13 +2832,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,8 +2913,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -343,10 +3219,958 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F597011A-B0C1-4460-B2EB-9C30C279B0DE}">
+  <dimension ref="B1:B134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="107.875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D054D98-5933-4155-A08F-F142AD85A8B7}">
+  <dimension ref="B1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="107.875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F644F6D-9CCF-4FC6-9C4C-95E2762D773D}">
+  <dimension ref="B1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="107.875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C40E78-6291-4E68-AB18-BE0C4F3A7714}">
+  <dimension ref="B1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="107.875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>

--- a/doc/config解析.xlsx
+++ b/doc/config解析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178E5C73-8B11-4850-87AE-1B77D87775C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCC636F-06FA-451F-9CAA-0FBF029EC9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="164">
   <si>
     <t>"""</t>
   </si>
@@ -3023,12 +3023,75 @@
     <t>フラッシュメッセージがテンプレートで使えるようになる（{% for message in messages %} など）</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>accounts/：ユーザー認証機能のルーティング（accounts.urlsが定義されている必要があります）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>""：トップページなどを扱うbookアプリへのルーティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin/：Django管理画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>urlのルーティングの設定</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは開発サーバーでメディアファイル（たとえば画像など）にアクセスできるようにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">注意点：これは 本番環境では使わない ことが推奨されています（DEBUG=True のときだけ有効にするのが普通です）。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 改善点（任意）
+もし明示的に安全にするなら、以下のように DEBUG のチェックを入れることもできます：
+if settings.DEBUG:
+    urlpatterns += static(settings.MEDIA_URL, document_root=settings.MEDIA_ROOT)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3097,6 +3160,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3130,7 +3214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3164,6 +3248,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4915,155 +5002,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D054D98-5933-4155-A08F-F142AD85A8B7}">
-  <dimension ref="B1:B30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="55.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="C7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="C10" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
+      <c r="C12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="C13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
+      <c r="C14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
+      <c r="C15" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C21" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C24" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="37.5">
       <c r="B25" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C25" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="C26" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="C27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2">
+      <c r="C28" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="C29" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="185.25">
       <c r="B30" s="5" t="s">
         <v>112</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/doc/config解析.xlsx
+++ b/doc/config解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCC636F-06FA-451F-9CAA-0FBF029EC9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351F365D-D749-49DA-9D7B-616B381DF231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings.py" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="172">
   <si>
     <t>"""</t>
   </si>
@@ -3084,6 +3084,44 @@
 if settings.DEBUG:
     urlpatterns += static(settings.MEDIA_URL, document_root=settings.MEDIA_ROOT)</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Djangoが用意している、ASGI互換のアプリケーションオブジェクトを取得するための関数をインポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pythonの標準ライブラリで、環境変数の設定などに使います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Djangoに「どの設定ファイルを使うか」を教えてあげるための行です。
+'config.settings' は、settings.pyが存在するPythonモジュールのパス。あなたのプロジェクト構成によって異なります。
+setdefault を使っているのは、環境変数がすでに設定されていない場合のみ値をセットするためです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DjangoのASGIアプリケーションのインスタンスを作成して、applicationという名前でエクスポートしています。
+ASGIサーバー（例：Uvicorn）はこのapplicationオブジェクトを探して実行します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでDjangoのWSGIアプリケーションのインスタンスを作成しています。
+Webサーバー（例：Gunicorn）は、このapplicationを使ってDjangoアプリにアクセスします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Djangoに「どの設定ファイルを使うか？」を教えるための行です。
+'config.settings' は、Djangoの設定ファイルのパス（例：config/settings.py）。
+setdefault にしているのは、すでに環境変数が設定されている場合はその値を優先させるためです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Djangoが提供するWSGIアプリケーションを取得するための関数をインポートしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pythonの標準ライブラリです。環境変数の設定に使います。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3306,6 +3344,239 @@
         <a:xfrm>
           <a:off x="14716125" y="11982450"/>
           <a:ext cx="4639322" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1437E960-F40E-628E-DD53-B224E0939422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14582775" y="419100"/>
+          <a:ext cx="4019550" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>asgi.py</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>プロジェクトを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>ASGI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Asynchronous Server Gateway Interface</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>）で動かすためのエントリーポイント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>です。簡単に言えば、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>を非同期対応の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>サーバー（例：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Daphne</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>や</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Uvicorn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>など）で動かすために必要なファイル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>572602</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39419BE7-6992-8A60-6496-739B0F790187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="7143750"/>
+          <a:ext cx="7897327" cy="2934109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477339</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>124704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2026905-CA7E-C0BA-4133-849B290EB5C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="10496550"/>
+          <a:ext cx="7802064" cy="6296904"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5004,7 +5275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D054D98-5933-4155-A08F-F142AD85A8B7}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5349,173 +5620,325 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F644F6D-9CCF-4FC6-9C4C-95E2762D773D}">
-  <dimension ref="B1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="58.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="C7" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C8" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C9" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="C10" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C11" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37.5">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
+      <c r="C12" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="C13" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="150">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
+      <c r="C14" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="2:2">
+      <c r="C15" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="93.75">
       <c r="B16" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C40E78-6291-4E68-AB18-BE0C4F3A7714}">
-  <dimension ref="B1:B16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="107.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="55.375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="C6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="C7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="C10" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="37.5">
       <c r="B12" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
+      <c r="C12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="C13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="150">
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
+      <c r="C14" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="2:2">
+      <c r="C15" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="93.75">
       <c r="B16" s="5" t="s">
         <v>117</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
